--- a/Estructura Colecciones MongoDB.xlsx
+++ b/Estructura Colecciones MongoDB.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
   <si>
     <t>ANIO</t>
   </si>
@@ -162,6 +163,12 @@
   </si>
   <si>
     <t>Es_Festivo</t>
+  </si>
+  <si>
+    <t>DEMANDA</t>
+  </si>
+  <si>
+    <t>OBJ</t>
   </si>
 </sst>
 </file>
@@ -185,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +229,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -250,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -258,6 +271,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L17"/>
+  <dimension ref="A2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,11 +881,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -878,4 +904,299 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>